--- a/dataframe/filmarks_emotion_ultraman.xlsx
+++ b/dataframe/filmarks_emotion_ultraman.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="21037" windowHeight="8265"/>
+    <workbookView windowWidth="17137" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,11 +15,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>Date</t>
   </si>
   <si>
+    <t>喜</t>
+  </si>
+  <si>
     <t>好</t>
   </si>
   <si>
@@ -29,61 +32,385 @@
     <t>無</t>
   </si>
   <si>
-    <t>喜</t>
+    <t>昂</t>
+  </si>
+  <si>
+    <t>怖</t>
   </si>
   <si>
     <t>哀</t>
   </si>
   <si>
-    <t>昂</t>
+    <t>怒</t>
   </si>
   <si>
     <t>安</t>
   </si>
   <si>
-    <t>怖</t>
-  </si>
-  <si>
-    <t>怒</t>
+    <t>驚</t>
   </si>
   <si>
     <t>恥</t>
   </si>
   <si>
-    <t>驚</t>
-  </si>
-  <si>
-    <t>2019/08/03</t>
-  </si>
-  <si>
-    <t>2019/12/22</t>
-  </si>
-  <si>
-    <t>2020/02/16</t>
-  </si>
-  <si>
-    <t>2020/09/13</t>
-  </si>
-  <si>
-    <t>2021/01/30</t>
-  </si>
-  <si>
-    <t>2021/03/28</t>
-  </si>
-  <si>
-    <t>2022/04/30</t>
-  </si>
-  <si>
-    <t>2022/05/04</t>
-  </si>
-  <si>
-    <t>2022/05/11</t>
-  </si>
-  <si>
-    <t>2022/05/12</t>
-  </si>
-  <si>
-    <t>2022/05/13</t>
+    <t>2022/07/06</t>
+  </si>
+  <si>
+    <t>2022/07/07</t>
+  </si>
+  <si>
+    <t>2022/07/08</t>
+  </si>
+  <si>
+    <t>2022/07/09</t>
+  </si>
+  <si>
+    <t>2022/07/10</t>
+  </si>
+  <si>
+    <t>2022/07/11</t>
+  </si>
+  <si>
+    <t>2022/07/12</t>
+  </si>
+  <si>
+    <t>2022/07/13</t>
+  </si>
+  <si>
+    <t>2022/07/14</t>
+  </si>
+  <si>
+    <t>2022/07/15</t>
+  </si>
+  <si>
+    <t>2022/07/16</t>
+  </si>
+  <si>
+    <t>2022/07/17</t>
+  </si>
+  <si>
+    <t>2022/07/18</t>
+  </si>
+  <si>
+    <t>2022/07/19</t>
+  </si>
+  <si>
+    <t>2022/07/20</t>
+  </si>
+  <si>
+    <t>2022/07/21</t>
+  </si>
+  <si>
+    <t>2022/07/22</t>
+  </si>
+  <si>
+    <t>2022/07/23</t>
+  </si>
+  <si>
+    <t>2022/07/24</t>
+  </si>
+  <si>
+    <t>2022/07/25</t>
+  </si>
+  <si>
+    <t>2022/07/26</t>
+  </si>
+  <si>
+    <t>2022/07/27</t>
+  </si>
+  <si>
+    <t>2022/07/28</t>
+  </si>
+  <si>
+    <t>2022/07/29</t>
+  </si>
+  <si>
+    <t>2022/07/30</t>
+  </si>
+  <si>
+    <t>2022/07/31</t>
+  </si>
+  <si>
+    <t>2022/08/01</t>
+  </si>
+  <si>
+    <t>2022/08/02</t>
+  </si>
+  <si>
+    <t>2022/08/03</t>
+  </si>
+  <si>
+    <t>2022/08/04</t>
+  </si>
+  <si>
+    <t>2022/08/05</t>
+  </si>
+  <si>
+    <t>2022/08/06</t>
+  </si>
+  <si>
+    <t>2022/08/07</t>
+  </si>
+  <si>
+    <t>2022/08/08</t>
+  </si>
+  <si>
+    <t>2022/08/09</t>
+  </si>
+  <si>
+    <t>2022/08/10</t>
+  </si>
+  <si>
+    <t>2022/08/11</t>
+  </si>
+  <si>
+    <t>2022/08/12</t>
+  </si>
+  <si>
+    <t>2022/08/13</t>
+  </si>
+  <si>
+    <t>2022/08/14</t>
+  </si>
+  <si>
+    <t>2022/08/15</t>
+  </si>
+  <si>
+    <t>2022/08/16</t>
+  </si>
+  <si>
+    <t>2022/08/17</t>
+  </si>
+  <si>
+    <t>2022/08/18</t>
+  </si>
+  <si>
+    <t>2022/08/19</t>
+  </si>
+  <si>
+    <t>2022/08/20</t>
+  </si>
+  <si>
+    <t>2022/08/21</t>
+  </si>
+  <si>
+    <t>2022/08/22</t>
+  </si>
+  <si>
+    <t>2022/08/23</t>
+  </si>
+  <si>
+    <t>2022/08/24</t>
+  </si>
+  <si>
+    <t>2022/08/25</t>
+  </si>
+  <si>
+    <t>2022/08/26</t>
+  </si>
+  <si>
+    <t>2022/08/27</t>
+  </si>
+  <si>
+    <t>2022/08/28</t>
+  </si>
+  <si>
+    <t>2022/08/29</t>
+  </si>
+  <si>
+    <t>2022/08/30</t>
+  </si>
+  <si>
+    <t>2022/08/31</t>
+  </si>
+  <si>
+    <t>2022/09/01</t>
+  </si>
+  <si>
+    <t>2022/09/03</t>
+  </si>
+  <si>
+    <t>2022/09/04</t>
+  </si>
+  <si>
+    <t>2022/09/05</t>
+  </si>
+  <si>
+    <t>2022/09/06</t>
+  </si>
+  <si>
+    <t>2022/09/07</t>
+  </si>
+  <si>
+    <t>2022/09/08</t>
+  </si>
+  <si>
+    <t>2022/09/09</t>
+  </si>
+  <si>
+    <t>2022/09/10</t>
+  </si>
+  <si>
+    <t>2022/09/11</t>
+  </si>
+  <si>
+    <t>2022/09/12</t>
+  </si>
+  <si>
+    <t>2022/09/13</t>
+  </si>
+  <si>
+    <t>2022/09/14</t>
+  </si>
+  <si>
+    <t>2022/09/15</t>
+  </si>
+  <si>
+    <t>2022/09/16</t>
+  </si>
+  <si>
+    <t>2022/09/17</t>
+  </si>
+  <si>
+    <t>2022/09/18</t>
+  </si>
+  <si>
+    <t>2022/09/19</t>
+  </si>
+  <si>
+    <t>2022/09/20</t>
+  </si>
+  <si>
+    <t>2022/09/21</t>
+  </si>
+  <si>
+    <t>2022/09/22</t>
+  </si>
+  <si>
+    <t>2022/09/24</t>
+  </si>
+  <si>
+    <t>2022/09/25</t>
+  </si>
+  <si>
+    <t>2022/09/26</t>
+  </si>
+  <si>
+    <t>2022/09/27</t>
+  </si>
+  <si>
+    <t>2022/09/28</t>
+  </si>
+  <si>
+    <t>2022/09/29</t>
+  </si>
+  <si>
+    <t>2022/09/30</t>
+  </si>
+  <si>
+    <t>2022/10/01</t>
+  </si>
+  <si>
+    <t>2022/10/02</t>
+  </si>
+  <si>
+    <t>2022/10/03</t>
+  </si>
+  <si>
+    <t>2022/10/04</t>
+  </si>
+  <si>
+    <t>2022/10/05</t>
+  </si>
+  <si>
+    <t>2022/10/06</t>
+  </si>
+  <si>
+    <t>2022/10/07</t>
+  </si>
+  <si>
+    <t>2022/10/08</t>
+  </si>
+  <si>
+    <t>2022/10/09</t>
+  </si>
+  <si>
+    <t>2022/10/10</t>
+  </si>
+  <si>
+    <t>2022/10/11</t>
+  </si>
+  <si>
+    <t>2022/10/12</t>
+  </si>
+  <si>
+    <t>2022/10/13</t>
+  </si>
+  <si>
+    <t>2022/10/14</t>
+  </si>
+  <si>
+    <t>2022/10/15</t>
+  </si>
+  <si>
+    <t>2022/10/16</t>
+  </si>
+  <si>
+    <t>2022/10/18</t>
+  </si>
+  <si>
+    <t>2022/10/19</t>
+  </si>
+  <si>
+    <t>2022/10/20</t>
+  </si>
+  <si>
+    <t>2022/10/21</t>
+  </si>
+  <si>
+    <t>2022/10/22</t>
+  </si>
+  <si>
+    <t>2022/10/23</t>
+  </si>
+  <si>
+    <t>2022/10/24</t>
+  </si>
+  <si>
+    <t>2022/10/25</t>
+  </si>
+  <si>
+    <t>2022/10/26</t>
+  </si>
+  <si>
+    <t>2022/10/28</t>
+  </si>
+  <si>
+    <t>2022/10/29</t>
+  </si>
+  <si>
+    <t>2022/10/30</t>
+  </si>
+  <si>
+    <t>2022/10/31</t>
+  </si>
+  <si>
+    <t>2022/11/01</t>
+  </si>
+  <si>
+    <t>2022/11/03</t>
+  </si>
+  <si>
+    <t>2022/11/04</t>
+  </si>
+  <si>
+    <t>2022/11/05</t>
+  </si>
+  <si>
+    <t>2022/11/06</t>
+  </si>
+  <si>
+    <t>2022/11/07</t>
   </si>
 </sst>
 </file>
@@ -92,10 +419,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.0%"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -113,26 +440,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -145,13 +464,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,14 +487,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,8 +523,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,25 +554,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,24 +569,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,6 +597,48 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -285,13 +654,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,19 +762,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,127 +780,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,21 +809,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -518,6 +830,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -532,26 +859,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,160 +897,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -808,11 +1134,12 @@
       <c:style val="4"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr defTabSz="914400">
@@ -870,10 +1197,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -887,7 +1211,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -901,9 +1225,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -917,7 +1239,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:lumMod val="50000"/>
+                </a:sysClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -931,7 +1255,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -945,7 +1269,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -959,10 +1283,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -976,7 +1297,24 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="ED7D31">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -990,10 +1328,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -1007,10 +1342,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:srgbClr val="002060"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -1019,6 +1351,7 @@
             </c:spPr>
           </c:dPt>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1027,7 +1360,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" forceAA="0"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1080,79 +1413,79 @@
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0" c:formatCode="General">
+                  <c:v>喜</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="General">
                   <c:v>好</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="General">
+                <c:pt idx="2" c:formatCode="General">
                   <c:v>嫌</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="General">
+                <c:pt idx="3" c:formatCode="General">
                   <c:v>無</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="General">
-                  <c:v>喜</c:v>
+                <c:pt idx="4" c:formatCode="General">
+                  <c:v>昂</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="General">
+                <c:pt idx="5" c:formatCode="General">
+                  <c:v>怖</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="General">
                   <c:v>哀</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="General">
-                  <c:v>昂</c:v>
+                <c:pt idx="7" c:formatCode="General">
+                  <c:v>怒</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="General">
+                <c:pt idx="8" c:formatCode="General">
                   <c:v>安</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="General">
-                  <c:v>怖</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="General">
-                  <c:v>怒</c:v>
-                </c:pt>
                 <c:pt idx="9" c:formatCode="General">
-                  <c:v>恥</c:v>
+                  <c:v>驚</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="General">
-                  <c:v>驚</c:v>
+                  <c:v>恥</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$13:$L$13</c:f>
+              <c:f>Sheet1!$B$122:$L$122</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>465</c:v>
+                  <c:v>476</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>371</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>145</c:v>
+                  <c:v>274</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>547</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>115</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>164</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>110</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>158</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>119</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>99</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1168,11 +1501,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="799615570"/>
-        <c:axId val="919319615"/>
+        <c:axId val="968288934"/>
+        <c:axId val="580496319"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="799615570"/>
+        <c:axId val="968288934"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1195,7 +1528,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1213,7 +1546,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="919319615"/>
+        <c:crossAx val="580496319"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1221,7 +1554,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="919319615"/>
+        <c:axId val="580496319"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1253,7 +1586,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1271,7 +1604,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="799615570"/>
+        <c:crossAx val="968288934"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1326,10 +1659,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="104"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="4"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -1353,7 +1686,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>各感情の合計値</a:t>
+              <a:t>各感情の割合</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1376,22 +1709,19 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:effectLst/>
-          </c:spPr>
+          <c:spPr/>
           <c:explosion val="0"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1401,10 +1731,12 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1414,12 +1746,12 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1429,10 +1761,14 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1442,10 +1778,12 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1455,10 +1793,12 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1468,13 +1808,12 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1484,10 +1823,15 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1497,10 +1841,12 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1510,13 +1856,12 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1526,13 +1871,12 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:srgbClr val="002060"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1599,79 +1943,79 @@
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0" c:formatCode="General">
+                  <c:v>喜</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="General">
                   <c:v>好</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="General">
+                <c:pt idx="2" c:formatCode="General">
                   <c:v>嫌</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="General">
+                <c:pt idx="3" c:formatCode="General">
                   <c:v>無</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="General">
-                  <c:v>喜</c:v>
+                <c:pt idx="4" c:formatCode="General">
+                  <c:v>昂</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="General">
+                <c:pt idx="5" c:formatCode="General">
+                  <c:v>怖</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="General">
                   <c:v>哀</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="General">
-                  <c:v>昂</c:v>
+                <c:pt idx="7" c:formatCode="General">
+                  <c:v>怒</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="General">
+                <c:pt idx="8" c:formatCode="General">
                   <c:v>安</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="General">
-                  <c:v>怖</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="General">
-                  <c:v>怒</c:v>
-                </c:pt>
                 <c:pt idx="9" c:formatCode="General">
-                  <c:v>恥</c:v>
+                  <c:v>驚</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="General">
-                  <c:v>驚</c:v>
+                  <c:v>恥</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$14:$L$14</c:f>
+              <c:f>Sheet1!$B$123:$L$123</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.20121159671138</c:v>
+                  <c:v>0.252653927813163</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.160536564257897</c:v>
+                  <c:v>0.212314225053079</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0627434011250541</c:v>
+                  <c:v>0.145435244161359</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.236694071830376</c:v>
+                  <c:v>0.102972399150743</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.049762007788836</c:v>
+                  <c:v>0.0679405520169851</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0709649502379922</c:v>
+                  <c:v>0.054140127388535</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0475984422327997</c:v>
+                  <c:v>0.0520169851380042</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0683686715707486</c:v>
+                  <c:v>0.0440552016985138</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0514928602336651</c:v>
+                  <c:v>0.0414012738853503</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00778883600173085</c:v>
+                  <c:v>0.0238853503184713</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0428385980095197</c:v>
+                  <c:v>0.00318471337579618</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1755,9 +2099,11 @@
       </a:pPr>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1768,8 +2114,42 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -2277,7 +2657,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2334,7 +2714,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2385,6 +2765,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2395,12 +2782,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -2438,7 +2832,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -2481,22 +2875,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2601,8 +2996,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2734,19 +3129,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2783,16 +3179,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>18415</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>153670</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>634365</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>6985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>443230</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>144145</xdr:rowOff>
+      <xdr:colOff>413385</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>159385</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2800,7 +3196,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="664210" y="1610995"/>
+        <a:off x="634365" y="19923760"/>
         <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2813,24 +3209,24 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>13335</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>541655</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>593090</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvPr id="5" name="グラフ 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6099810" y="1632585"/>
+        <a:off x="5334635" y="19923125"/>
         <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2855,34 +3251,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -3126,13 +3522,292 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="1F497D"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="EEECE1"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4F81BD"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="C0504D"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="9BBB59"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="8064A2"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4BACC6"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="F79646"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0000FF"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="800080"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Cambria"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="50000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="35000">
+            <a:schemeClr val="phClr">
+              <a:tint val="37000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:tint val="15000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="1"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:shade val="51000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="80000">
+            <a:schemeClr val="phClr">
+              <a:shade val="93000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="94000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t">
+            <a:rot lat="0" lon="0" rev="1200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="63500" h="25400"/>
+        </a:sp3d>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="40000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="40000">
+            <a:schemeClr val="phClr">
+              <a:tint val="45000"/>
+              <a:shade val="99000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="20000"/>
+              <a:satMod val="255000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="80000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="30000"/>
+              <a:satMod val="200000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="O143" sqref="O143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -3183,37 +3858,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3221,31 +3896,31 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -3259,28 +3934,28 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -3297,34 +3972,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -3335,37 +4010,37 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -3373,34 +4048,34 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -3411,34 +4086,34 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -3449,31 +4124,31 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -3487,34 +4162,34 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -3525,31 +4200,31 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -3563,136 +4238,4281 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>460</v>
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>367</v>
+        <v>8</v>
       </c>
       <c r="D12">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>542</v>
+        <v>9</v>
       </c>
       <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>6</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34">
+        <v>9</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68">
+        <v>4</v>
+      </c>
+      <c r="C68">
+        <v>6</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>6</v>
+      </c>
+      <c r="D69">
+        <v>6</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>2</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74">
+        <v>4</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>2</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>6</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>3</v>
+      </c>
+      <c r="G80">
+        <v>2</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>2</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <v>5</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B85">
+        <v>3</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>2</v>
+      </c>
+      <c r="K91">
+        <v>2</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92">
+        <v>3</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>5</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>3</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>2</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>2</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G12">
-        <v>160</v>
-      </c>
-      <c r="H12">
-        <v>110</v>
-      </c>
-      <c r="I12">
-        <v>155</v>
-      </c>
-      <c r="J12">
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106">
+        <v>3</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B107">
+        <v>3</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="K12">
-        <v>18</v>
-      </c>
-      <c r="L12">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="2">
-        <f t="shared" ref="B13:L13" si="0">SUM(B2:B12)</f>
-        <v>465</v>
-      </c>
-      <c r="C13" s="2">
-        <f t="shared" si="0"/>
-        <v>371</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>145</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="0"/>
-        <v>547</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="0"/>
-        <v>115</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="0"/>
-        <v>164</v>
-      </c>
-      <c r="H13" s="2">
-        <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-      <c r="I13" s="2">
-        <f t="shared" si="0"/>
-        <v>158</v>
-      </c>
-      <c r="J13" s="2">
-        <f t="shared" si="0"/>
+      <c r="B108">
+        <v>2</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="K13" s="2">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="L13" s="2">
-        <f t="shared" si="0"/>
-        <v>99</v>
-      </c>
-      <c r="M13">
-        <f>SUM(B13:L13)</f>
-        <v>2311</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="3">
-        <f t="shared" ref="B14:L14" si="1">B13/$M13</f>
-        <v>0.20121159671138</v>
-      </c>
-      <c r="C14" s="3">
-        <f t="shared" si="1"/>
-        <v>0.160536564257897</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" si="1"/>
-        <v>0.0627434011250541</v>
-      </c>
-      <c r="E14" s="3">
-        <f t="shared" si="1"/>
-        <v>0.236694071830376</v>
-      </c>
-      <c r="F14" s="3">
-        <f t="shared" si="1"/>
-        <v>0.049762007788836</v>
-      </c>
-      <c r="G14" s="3">
-        <f t="shared" si="1"/>
-        <v>0.0709649502379922</v>
-      </c>
-      <c r="H14" s="3">
-        <f t="shared" si="1"/>
-        <v>0.0475984422327997</v>
-      </c>
-      <c r="I14" s="3">
-        <f t="shared" si="1"/>
-        <v>0.0683686715707486</v>
-      </c>
-      <c r="J14" s="3">
-        <f t="shared" si="1"/>
-        <v>0.0514928602336651</v>
-      </c>
-      <c r="K14" s="3">
-        <f t="shared" si="1"/>
-        <v>0.00778883600173085</v>
-      </c>
-      <c r="L14" s="3">
-        <f t="shared" si="1"/>
-        <v>0.0428385980095197</v>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="A110" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="A111" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="A113" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
+      <c r="A114" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B114">
+        <v>2</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+      <c r="D114">
+        <v>5</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B115">
+        <v>3</v>
+      </c>
+      <c r="C115">
+        <v>2</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B116">
+        <v>4</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>2</v>
+      </c>
+      <c r="G116">
+        <v>2</v>
+      </c>
+      <c r="H116">
+        <v>2</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>2</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="C120">
+        <v>4</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:13">
+      <c r="B122">
+        <f>SUM(B2:B121)</f>
+        <v>476</v>
+      </c>
+      <c r="C122">
+        <f>SUM(C2:C121)</f>
+        <v>400</v>
+      </c>
+      <c r="D122">
+        <f>SUM(D2:D121)</f>
+        <v>274</v>
+      </c>
+      <c r="E122">
+        <f>SUM(E2:E121)</f>
+        <v>194</v>
+      </c>
+      <c r="F122">
+        <f>SUM(F2:F121)</f>
+        <v>128</v>
+      </c>
+      <c r="G122">
+        <f>SUM(G2:G121)</f>
+        <v>102</v>
+      </c>
+      <c r="H122">
+        <f>SUM(H2:H121)</f>
+        <v>98</v>
+      </c>
+      <c r="I122">
+        <f>SUM(I2:I121)</f>
+        <v>83</v>
+      </c>
+      <c r="J122">
+        <f>SUM(J2:J121)</f>
+        <v>78</v>
+      </c>
+      <c r="K122">
+        <f>SUM(K2:K121)</f>
+        <v>45</v>
+      </c>
+      <c r="L122">
+        <f>SUM(L2:L121)</f>
+        <v>6</v>
+      </c>
+      <c r="M122">
+        <f>SUM(B122:L122)</f>
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="123" spans="2:12">
+      <c r="B123" s="2">
+        <f>B122/$M122</f>
+        <v>0.252653927813163</v>
+      </c>
+      <c r="C123" s="2">
+        <f>C122/$M122</f>
+        <v>0.212314225053079</v>
+      </c>
+      <c r="D123" s="2">
+        <f>D122/$M122</f>
+        <v>0.145435244161359</v>
+      </c>
+      <c r="E123" s="2">
+        <f>E122/$M122</f>
+        <v>0.102972399150743</v>
+      </c>
+      <c r="F123" s="2">
+        <f>F122/$M122</f>
+        <v>0.0679405520169851</v>
+      </c>
+      <c r="G123" s="2">
+        <f>G122/$M122</f>
+        <v>0.054140127388535</v>
+      </c>
+      <c r="H123" s="2">
+        <f>H122/$M122</f>
+        <v>0.0520169851380042</v>
+      </c>
+      <c r="I123" s="2">
+        <f>I122/$M122</f>
+        <v>0.0440552016985138</v>
+      </c>
+      <c r="J123" s="2">
+        <f>J122/$M122</f>
+        <v>0.0414012738853503</v>
+      </c>
+      <c r="K123" s="2">
+        <f>K122/$M122</f>
+        <v>0.0238853503184713</v>
+      </c>
+      <c r="L123" s="2">
+        <f>L122/$M122</f>
+        <v>0.00318471337579618</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B1:L123" columnSort="1">
+    <sortCondition ref="B122:L122" descending="1"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/dataframe/filmarks_emotion_ultraman.xlsx
+++ b/dataframe/filmarks_emotion_ultraman.xlsx
@@ -3806,8 +3806,8 @@
   <sheetPr/>
   <dimension ref="A1:M123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="O143" sqref="O143"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
